--- a/00_class_schedule/archive/class_schedule_xlsx_2026.xlsx
+++ b/00_class_schedule/archive/class_schedule_xlsx_2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/ds4humans/00_class_schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/ds4humans/00_class_schedule/archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC944AE-5894-5141-B613-CF972411BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D9BB6F-A581-7E41-9679-710E88E8D1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="35620" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="35620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>REVIEW NEW READING ON TOTAL ERROR</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;../99_exercises/exercise_regressions_incomeineq.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1600,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
